--- a/src/main/resources/template/excel/export/PAForm.xlsx
+++ b/src/main/resources/template/excel/export/PAForm.xlsx
@@ -35,7 +35,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="P8")</t>
+          <t>jx:area(lastCell="R8")</t>
         </r>
       </text>
     </comment>
@@ -50,7 +50,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="P7")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="R7")</t>
         </r>
       </text>
     </comment>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>采购收货单</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>单价</t>
-  </si>
-  <si>
-    <t>金额</t>
   </si>
   <si>
     <t>是否赠品</t>
@@ -413,14 +410,38 @@
     <t>${amount}</t>
   </si>
   <si>
-    <t>$[SUMPRODUCT(I7:I7:I7+0)]</t>
+    <t>不含税单价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedAmount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(J7:J7:J7+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(K7:K7:K7+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedPrice}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -610,6 +631,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -633,9 +657,6 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -664,7 +685,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -950,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -961,152 +982,162 @@
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="13" width="12.625" customWidth="1"/>
-    <col min="14" max="15" width="18.625" customWidth="1"/>
-    <col min="16" max="16" width="24.625" customWidth="1"/>
+    <col min="4" max="15" width="12.625" customWidth="1"/>
+    <col min="16" max="17" width="18.625" customWidth="1"/>
+    <col min="18" max="18" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20" t="s">
+      <c r="M3" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="23"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="13"/>
+      <c r="E5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="14"/>
       <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1129,124 +1160,140 @@
         <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="M3:R3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/PAForm.xlsx
+++ b/src/main/resources/template/excel/export/PAForm.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>采购收货单</t>
   </si>
@@ -435,6 +435,10 @@
   </si>
   <si>
     <t>${obj.untaxedPrice}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(O7:O7:O7+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -974,7 +978,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1236,7 +1240,7 @@
       <c r="N7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="11" t="s">
         <v>48</v>
       </c>
       <c r="P7" s="9" t="s">
@@ -1274,7 +1278,9 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="O8" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
